--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3481.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3481.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.192566688849196</v>
+        <v>0.7568061351776123</v>
       </c>
       <c r="B1">
-        <v>2.425653880498499</v>
+        <v>1.959241390228271</v>
       </c>
       <c r="C1">
-        <v>8.065981841561952</v>
+        <v>4.057443618774414</v>
       </c>
       <c r="D1">
-        <v>2.771185093807807</v>
+        <v>3.562716484069824</v>
       </c>
       <c r="E1">
-        <v>1.396780557964173</v>
+        <v>2.007883310317993</v>
       </c>
     </row>
   </sheetData>
